--- a/data/admin_user.xlsx
+++ b/data/admin_user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="360" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -224,193 +224,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>300528</t>
+  </si>
+  <si>
+    <t>283449</t>
+  </si>
+  <si>
+    <t>lishouxiang@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>16251X</t>
+  </si>
+  <si>
+    <t>zhangxuezhao@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>10245X</t>
+  </si>
+  <si>
+    <t>hemu@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>242110</t>
+  </si>
+  <si>
+    <t>zhangyan@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>190024</t>
+  </si>
+  <si>
+    <t>liuzijian@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>309339</t>
+  </si>
+  <si>
+    <t>zhubeibei@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>020520</t>
+  </si>
+  <si>
+    <t>yuxiaowu@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>095439</t>
+  </si>
+  <si>
+    <t>wenhaiyuan@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>105614</t>
+  </si>
+  <si>
+    <t>wangliang@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>291410</t>
+  </si>
+  <si>
+    <t>chenyunchao@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>253037</t>
+  </si>
+  <si>
+    <t>zhoujianmin@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>042534</t>
+  </si>
+  <si>
+    <t>zhaoxuejing@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>163326</t>
+  </si>
+  <si>
+    <t>14233X</t>
+  </si>
+  <si>
+    <t>xuhuaxia@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>281040</t>
+  </si>
+  <si>
+    <t>zhangxiduo@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>281010</t>
+  </si>
+  <si>
+    <t>zhangjinsong@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>221556</t>
+  </si>
+  <si>
+    <t>wangyajun@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>271474</t>
+  </si>
+  <si>
+    <t>xiayu@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>173012</t>
+  </si>
+  <si>
+    <t>jiangwentuo@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>182033</t>
+  </si>
+  <si>
+    <t>sundanyu@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>222244</t>
+  </si>
+  <si>
+    <t>zousandan@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>172519</t>
+  </si>
+  <si>
+    <t>pengdejun@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>142414</t>
+  </si>
+  <si>
+    <t>xuxiaoye@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>174028</t>
+  </si>
+  <si>
+    <t>029725</t>
+  </si>
+  <si>
+    <t>zhouhouchun@xiaoyezi.com</t>
+  </si>
+  <si>
+    <t>285423</t>
+  </si>
+  <si>
+    <t>lijing@xiaoyezi.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xsjy17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17yyjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zn17yq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwyy17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wanghui@xiaoyezi.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fangxiaona@xiaoyezi.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>renchen@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>300528</t>
-  </si>
-  <si>
-    <t>wanghui@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>283449</t>
-  </si>
-  <si>
-    <t>lishouxiang@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>16251X</t>
-  </si>
-  <si>
-    <t>zhangxuezhao@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>10245X</t>
-  </si>
-  <si>
-    <t>hemu@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>242110</t>
-  </si>
-  <si>
-    <t>zhangyan@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>190024</t>
-  </si>
-  <si>
-    <t>liuzijian@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>309339</t>
-  </si>
-  <si>
-    <t>zhubeibei@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>020520</t>
-  </si>
-  <si>
-    <t>yuxiaowu@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>095439</t>
-  </si>
-  <si>
-    <t>wenhaiyuan@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>105614</t>
-  </si>
-  <si>
-    <t>wangliang@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>291410</t>
-  </si>
-  <si>
-    <t>chenyunchao@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>253037</t>
-  </si>
-  <si>
-    <t>zhoujianmin@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>042534</t>
-  </si>
-  <si>
-    <t>zhaoxuejing@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>163326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bofengfeng@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>14233X</t>
-  </si>
-  <si>
-    <t>xuhuaxia@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>281040</t>
-  </si>
-  <si>
-    <t>zhangxiduo@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>281010</t>
-  </si>
-  <si>
-    <t>zhangjinsong@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>221556</t>
-  </si>
-  <si>
-    <t>wangyajun@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>271474</t>
-  </si>
-  <si>
-    <t>xiayu@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>173012</t>
-  </si>
-  <si>
-    <t>jiangwentuo@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>182033</t>
-  </si>
-  <si>
-    <t>sundanyu@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>222244</t>
-  </si>
-  <si>
-    <t>zousandan@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>172519</t>
-  </si>
-  <si>
-    <t>pengdejun@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>142414</t>
-  </si>
-  <si>
-    <t>xuxiaoye@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>174028</t>
-  </si>
-  <si>
-    <t>fangxiaona@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>029725</t>
-  </si>
-  <si>
-    <t>zhouhouchun@xiaoyezi.com</t>
-  </si>
-  <si>
-    <t>285423</t>
-  </si>
-  <si>
-    <t>lijing@xiaoyezi.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lijing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xsjy17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17yyjs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zn17yq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwyy17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +820,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -855,7 +859,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -866,7 +870,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -877,7 +881,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -888,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -896,10 +900,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -913,10 +917,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -928,10 +932,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -945,10 +949,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -962,10 +966,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -979,10 +983,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -996,10 +1000,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1013,10 +1017,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1030,10 +1034,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1047,10 +1051,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1064,10 +1068,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>10</v>
@@ -1081,10 +1085,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>31</v>
@@ -1095,10 +1099,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
@@ -1112,10 +1116,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1129,10 +1133,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>10</v>
@@ -1146,10 +1150,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>10</v>
@@ -1164,7 +1168,7 @@
         <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -1178,10 +1182,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1195,10 +1199,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
@@ -1212,10 +1216,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
@@ -1229,10 +1233,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -1246,10 +1250,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1263,10 +1267,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
@@ -1280,10 +1284,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
@@ -1297,10 +1301,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
@@ -1314,10 +1318,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>15</v>
@@ -1331,10 +1335,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
@@ -1348,10 +1352,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
@@ -1365,10 +1369,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>

--- a/data/admin_user.xlsx
+++ b/data/admin_user.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="360" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="未提交" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,14 +205,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>薄峰峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>产品</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>熊猫陪练项目产品运营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,13 +221,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>赵雪静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AHR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>renchen@xiaoyezi.com</t>
+  </si>
+  <si>
     <t>300528</t>
   </si>
   <si>
+    <t>wanghui@xiaoyezi.com</t>
+  </si>
+  <si>
     <t>283449</t>
   </si>
   <si>
@@ -302,6 +313,9 @@
     <t>163326</t>
   </si>
   <si>
+    <t>bofengfeng@xiaoyezi.com</t>
+  </si>
+  <si>
     <t>14233X</t>
   </si>
   <si>
@@ -365,6 +379,9 @@
     <t>174028</t>
   </si>
   <si>
+    <t>fangxiaona@xiaoyezi.com</t>
+  </si>
+  <si>
     <t>029725</t>
   </si>
   <si>
@@ -402,19 +419,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wanghui@xiaoyezi.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fangxiaona@xiaoyezi.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>renchen@xiaoyezi.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bofengfeng@xiaoyezi.com</t>
+    <t>熊猫陪练项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫陪练项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangqijun@xiaoyezi.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -859,7 +880,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -870,7 +891,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -881,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -892,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -900,10 +921,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -917,59 +938,61 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -978,148 +1001,148 @@
         <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
+      <c r="D14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>10</v>
@@ -1128,64 +1151,66 @@
         <v>24</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>37</v>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>38</v>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1194,198 +1219,261 @@
         <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>40</v>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>99</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>45</v>
+      <c r="D28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>48</v>
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F34"/>
+  <autoFilter ref="A1:F33"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="12">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="12">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
